--- a/ResultadosLuna/resultados_modelos_DIC_3mod.xlsx
+++ b/ResultadosLuna/resultados_modelos_DIC_3mod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Cuarto\TFG\ResultadosLuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F756A4-75E7-42BB-AB16-FEBE567C0399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF97FDC-85A8-4C3B-949B-0839E773CF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
     <t xml:space="preserve">mri_z_mu_1 ~ Mutationtype2 +DIAN_EYO + gender + apoe2 + cdrglob + COG_global + VISITAGEc +  CDRSUM+ CSF_XMAP_PTAU_LONG + </t>
   </si>
   <si>
-    <t>Model</t>
+    <t>Modelo</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ResultadosLuna/resultados_modelos_DIC_3mod.xlsx
+++ b/ResultadosLuna/resultados_modelos_DIC_3mod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Cuarto\TFG\ResultadosLuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C1DC1C-9899-4DCB-8C1F-BB5BEAFA8D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515C77E8-6084-4280-AFCC-A87BBE3B54D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,68 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
-  <si>
-    <t>Modelo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>DIC</t>
   </si>
   <si>
-    <t>mri_z_mu_1 ~ apoe2 + Mutationtype2 * DIAN_EYO + gender</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ (Mutationtype2) * (DIAN_EYO) + gender</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ (Mutationtype2 + apoe2) * DIAN_EYO + gender</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ (Mutationtype2 * apoe2) * DIAN_EYO + gender</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ Mutationtype2 + DIAN_EYO * apoe2 + VISITAGEc</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ (apoe2) * DIAN_EYO + gender</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ Mutationtype2 + apoe2 * DIAN_EYO + gender</t>
-  </si>
-  <si>
-    <t>mri_z_mu_1 ~ Mutationtype2 + apoe2 + DIAN_EYO + gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mri_z_mu_1 ~ Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    COG_global + VISITAGEc + CDRSUM + CSF_XMAP_PTAU_LONG + COG_ep_mem + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    COG_executive + COG_language + COG_attention + CSF_XMAP_AB42_LONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    COG_executive + COG_language + COG_attention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    COG_executive + COG_language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    COG_executive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    COG_global + VISITAGEc + CDRSUM + CSF_XMAP_PTAU_LONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    COG_global + VISITAGEc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    VISITAGEc</t>
-  </si>
-  <si>
     <t>Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + COG_global + VISITAGEc + CDRSUM</t>
   </si>
   <si>
@@ -97,10 +40,70 @@
     <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_global + COG_executive + Mutation2</t>
   </si>
   <si>
-    <t xml:space="preserve">Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + COG_global + VISITAGEc + CDRSUM + CSF_XMAP_PTAU_LONG + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">              COG_ep_mem</t>
+    <t xml:space="preserve">Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + COG_global + VISITAGEc + CDRSUM + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           CSF_XMAP_PTAU_LONG +  COG_ep_mem</t>
+  </si>
+  <si>
+    <t>Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + COG_global + VISITAGEc +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          CDRSUM + CSF_XMAP_PTAU_LONG + COG_ep_mem + COG_executive + COG_language</t>
+  </si>
+  <si>
+    <t>apoe2 + Mutationtype2 * DIAN_EYO + gender</t>
+  </si>
+  <si>
+    <t>(Mutationtype2) * (DIAN_EYO) + gender</t>
+  </si>
+  <si>
+    <t>(Mutationtype2 + apoe2) * DIAN_EYO + gender</t>
+  </si>
+  <si>
+    <t>(Mutationtype2 * apoe2) * DIAN_EYO + gender</t>
+  </si>
+  <si>
+    <t>Mutationtype2 + apoe2 + DIAN_EYO + gender</t>
+  </si>
+  <si>
+    <t>Mutationtype2 + DIAN_EYO * apoe2 + VISITAGEc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         CSF_XMAP_PTAU_LONG + COG_ep_mem + COG_executive + COG_language + COG_attention</t>
+  </si>
+  <si>
+    <t>Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + COG_global + VISITAGEc + CDRSUM +</t>
+  </si>
+  <si>
+    <t>Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + COG_global + VISITAGEc + CDRSUM + COG_executive</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           CDRSUM + CSF_XMAP_PTAU_LONG + COG_ep_mem + COG_executive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            CSF_XMAP_PTAU_LONG + COG_ep_mem + COG_language + COG_attention + CSF_XMAP_AB42_LONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          CSF_XMAP_PTAU_LONG</t>
+  </si>
+  <si>
+    <t>Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + VISITAGEc</t>
+  </si>
+  <si>
+    <t>Mutationtype2 + apoe2 * DIAN_EYO + gender</t>
+  </si>
+  <si>
+    <t>(apoe2) * DIAN_EYO + gender</t>
+  </si>
+  <si>
+    <t>Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + COG_global + VISITAGEc</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -434,318 +437,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B29" sqref="A1:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="100.81640625" customWidth="1"/>
+    <col min="1" max="1" width="90.6328125" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1877.94</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1878.78</v>
+      </c>
+    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>1878.78</v>
+        <v>1879.5920000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1882.38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1879.5920000000001</v>
+        <v>1883.0060000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>1882.38</v>
+        <v>1889.251</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>1882.38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>1883.0060000000001</v>
+        <v>1901.5250000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>1883.0060000000001</v>
+        <v>1903.2670000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>1889.251</v>
+        <v>1909.981</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>1889.251</v>
+        <v>1930.2449999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>1889.251</v>
+        <v>1944.193</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>1901.5250000000001</v>
+        <v>1983.7449999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>1903.2670000000001</v>
+        <v>4073.9659999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>1909.981</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>1930.2449999999999</v>
+        <v>4074.1990000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19">
-        <v>1944.193</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>1983.7449999999999</v>
+        <v>4580.5959999999995</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21">
-        <v>4073.9659999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>4073.9659999999999</v>
+        <v>4660.683</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23">
-        <v>4073.9659999999999</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>4074.1990000000001</v>
+        <v>4708.643</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25">
-        <v>4074.1990000000001</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>4074.1990000000001</v>
+        <v>4717.9799999999996</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>4580.5959999999995</v>
+        <v>4848.7460000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B28">
-        <v>4589.3419999999996</v>
+        <v>5093.57</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B29">
-        <v>4660.683</v>
+        <v>5171.991</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30">
-        <v>4660.683</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31">
-        <v>4660.683</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32">
-        <v>4708.643</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33">
-        <v>4708.643</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34">
-        <v>4717.9799999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35">
-        <v>4717.9799999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36">
-        <v>4848.7460000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37">
-        <v>5093.57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38">
-        <v>5171.991</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39">
-        <v>5171.991</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B39">
-    <sortCondition ref="B39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
+    <sortCondition ref="B30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/ResultadosLuna/resultados_modelos_DIC_3mod.xlsx
+++ b/ResultadosLuna/resultados_modelos_DIC_3mod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Cuarto\TFG\ResultadosLuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515C77E8-6084-4280-AFCC-A87BBE3B54D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C48FCD9-26C9-498A-BD9E-0AFCCA263C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>DIC</t>
   </si>
@@ -28,79 +28,97 @@
     <t>Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + COG_global + VISITAGEc + CDRSUM</t>
   </si>
   <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_global + Mutation2</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_global</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_global + COG_executive + Mutation2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + COG_global + VISITAGEc + CDRSUM + </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           CSF_XMAP_PTAU_LONG +  COG_ep_mem</t>
+  </si>
+  <si>
+    <t>Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + COG_global + VISITAGEc +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          CDRSUM + CSF_XMAP_PTAU_LONG + COG_ep_mem + COG_executive + COG_language</t>
+  </si>
+  <si>
+    <t>apoe2 + Mutationtype2 * DIAN_EYO + gender</t>
+  </si>
+  <si>
+    <t>(Mutationtype2) * (DIAN_EYO) + gender</t>
+  </si>
+  <si>
+    <t>(Mutationtype2 + apoe2) * DIAN_EYO + gender</t>
+  </si>
+  <si>
+    <t>(Mutationtype2 * apoe2) * DIAN_EYO + gender</t>
+  </si>
+  <si>
+    <t>Mutationtype2 + apoe2 + DIAN_EYO + gender</t>
+  </si>
+  <si>
+    <t>Mutationtype2 + DIAN_EYO * apoe2 + VISITAGEc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         CSF_XMAP_PTAU_LONG + COG_ep_mem + COG_executive + COG_language + COG_attention</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           CDRSUM + CSF_XMAP_PTAU_LONG + COG_ep_mem + COG_executive</t>
+  </si>
+  <si>
+    <t>Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + COG_global + VISITAGEc + CDRSUM +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          CSF_XMAP_PTAU_LONG</t>
+  </si>
+  <si>
+    <t>Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + VISITAGEc</t>
+  </si>
+  <si>
+    <t>Mutationtype2 + apoe2 * DIAN_EYO + gender</t>
+  </si>
+  <si>
+    <t>(apoe2) * DIAN_EYO + gender</t>
+  </si>
+  <si>
+    <t>Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + COG_global + VISITAGEc</t>
+  </si>
+  <si>
     <t xml:space="preserve">    </t>
   </si>
   <si>
-    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_global + Mutation2</t>
-  </si>
-  <si>
-    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_global</t>
-  </si>
-  <si>
-    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + COG_global + COG_executive + Mutation2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + COG_global + VISITAGEc + CDRSUM + </t>
-  </si>
-  <si>
-    <t xml:space="preserve">           CSF_XMAP_PTAU_LONG +  COG_ep_mem</t>
-  </si>
-  <si>
-    <t>Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + COG_global + VISITAGEc +</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          CDRSUM + CSF_XMAP_PTAU_LONG + COG_ep_mem + COG_executive + COG_language</t>
-  </si>
-  <si>
-    <t>apoe2 + Mutationtype2 * DIAN_EYO + gender</t>
-  </si>
-  <si>
-    <t>(Mutationtype2) * (DIAN_EYO) + gender</t>
-  </si>
-  <si>
-    <t>(Mutationtype2 + apoe2) * DIAN_EYO + gender</t>
-  </si>
-  <si>
-    <t>(Mutationtype2 * apoe2) * DIAN_EYO + gender</t>
-  </si>
-  <si>
-    <t>Mutationtype2 + apoe2 + DIAN_EYO + gender</t>
-  </si>
-  <si>
-    <t>Mutationtype2 + DIAN_EYO * apoe2 + VISITAGEc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         CSF_XMAP_PTAU_LONG + COG_ep_mem + COG_executive + COG_language + COG_attention</t>
-  </si>
-  <si>
-    <t>Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + COG_global + VISITAGEc + CDRSUM +</t>
-  </si>
-  <si>
-    <t>Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + COG_global + VISITAGEc + CDRSUM + COG_executive</t>
-  </si>
-  <si>
-    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">           CDRSUM + CSF_XMAP_PTAU_LONG + COG_ep_mem + COG_executive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            CSF_XMAP_PTAU_LONG + COG_ep_mem + COG_language + COG_attention + CSF_XMAP_AB42_LONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          CSF_XMAP_PTAU_LONG</t>
-  </si>
-  <si>
-    <t>Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + VISITAGEc</t>
-  </si>
-  <si>
-    <t>Mutationtype2 + apoe2 * DIAN_EYO + gender</t>
-  </si>
-  <si>
-    <t>(apoe2) * DIAN_EYO + gender</t>
-  </si>
-  <si>
-    <t>Mutationtype2 + DIAN_EYO + gender + apoe2 + cdrglob + COG_global + VISITAGEc</t>
+    <t xml:space="preserve">         COG_executive + CSF_XMAP_PTAU_LONG + COG_ep_mem + COG_language + COG_attention +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         CSF_XMAP_AB42_LONG</t>
+  </si>
+  <si>
+    <t>Mutationtype2 + (DIAN_EYO) * gender + cdrglob + VISITAGEc</t>
+  </si>
+  <si>
+    <t>Mutationtype2 * (DIAN_EYO) + gender + cdrglob + VISITAGEc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mutationtype2 * (DIAN_EYO) + gender + VISITAGEc</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + VISITAGEc + COG_global + COG_attention</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + cdrglob + VISITAGEc</t>
+  </si>
+  <si>
+    <t>DIAN_EYO * (apoe2 + Mutationtype2) + gender + VISITAGEc</t>
   </si>
   <si>
     <t>Model</t>
@@ -437,27 +455,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B29" sqref="A1:B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="A1:B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.6328125" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" customWidth="1"/>
+    <col min="1" max="1" width="88.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -465,209 +482,270 @@
         <v>1877.94</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>1878.431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1878.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1878.78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>1879.5920000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>1881.5119999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1879.5920000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B7">
+        <v>1882.38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1882.38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B8">
+        <v>1883.0060000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1883.0060000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>1888.1859999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B11">
+        <v>1889.251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1889.251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B13">
+        <v>1901.5250000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>1901.5250000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B14">
+        <v>1903.2670000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>1903.2670000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B15">
+        <v>1909.981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>1910.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>1909.981</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B17">
+        <v>1930.2449999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>1930.2449999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B18">
+        <v>1944.193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>1944.193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B19">
+        <v>1983.7449999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>4073.9659999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>1983.7449999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>4073.9659999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>4074.1990000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>4526.5039999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>4562.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>4573.174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B28">
+        <v>4580.5959999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>4660.683</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>4074.1990000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B32">
+        <v>4708.643</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>4717.9799999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>4580.5959999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>4660.683</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24">
-        <v>4708.643</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B35">
+        <v>4848.7460000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B36">
+        <v>5093.57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>23</v>
       </c>
-      <c r="B26">
-        <v>4717.9799999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B37">
+        <v>5171.991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>24</v>
       </c>
-      <c r="B27">
-        <v>4848.7460000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28">
-        <v>5093.57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29">
-        <v>5171.991</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B30">
-    <sortCondition ref="B30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A39:B45">
+    <sortCondition ref="B39:B45"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
